--- a/dist/blogmap_max1000.xlsx
+++ b/dist/blogmap_max1000.xlsx
@@ -20,10 +20,10 @@
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.0</t>
   </si>
   <si>
-    <t>[] Blog</t>
-  </si>
-  <si>
-    <t>Exported: 2023-11-02 16:58:20</t>
+    <t>[Pickles 2] Blog</t>
+  </si>
+  <si>
+    <t>Exported: 2023-11-03 01:58:20</t>
   </si>
   <si>
     <t>ページタイトル</t>
